--- a/MEDIA/_ 1102_301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102_301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102_301_2020-10-16~2020-10-16)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102_301_2020-11-25~2020-11-25)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>43164271</v>
+        <v>62975810</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>支付10-1559蘇三鉛費用申請              </t>
+          <t>匯甲骨文-支付11-1796黃宇浩費用申請         </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1376</v>
+        <v>-67800</v>
       </c>
       <c r="G4" t="n">
-        <v>43162895</v>
+        <v>62908010</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>111682</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>付和航汽車車款  車號:AUN-3796          </t>
+          <t>匯10月份堤諾高雄草衛道營收淨額              </t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-785000</v>
+        <v>-506122</v>
       </c>
       <c r="G5" t="n">
-        <v>42377895</v>
+        <v>62401888</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110108</t>
+          <t>111571</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>支付10-1569鄭維愉費用申請              </t>
+          <t>自動扣繳109/11月中華電話費:23260071     </t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-2185</v>
+        <v>-427</v>
       </c>
       <c r="G6" t="n">
-        <v>42375710</v>
+        <v>62401461</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>支付吳承哲-10-1574林堉鈖費用申請          </t>
+          <t>自動扣繳109/11月中華電話費:0800888683   </t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-2323</v>
+        <v>-100</v>
       </c>
       <c r="G7" t="n">
-        <v>42373387</v>
+        <v>62401361</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>支付劉佳宜-員工生育津貼+配偶外公過世奠儀         </t>
+          <t>自動扣繳109/11月中華電話費:Y172351      </t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-5100</v>
+        <v>-2193</v>
       </c>
       <c r="G8" t="n">
-        <v>42368287</v>
+        <v>62399168</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>支付凃雅慧-沖9/30#110016            </t>
+          <t>自動扣繳109/11月中華電話費:23261382     </t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-13125</v>
+        <v>-784</v>
       </c>
       <c r="G9" t="n">
-        <v>42355162</v>
+        <v>62398384</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>支付吳恩賜-沖9/30#110016            </t>
+          <t>自動扣繳109/11月中華電話費:Y231252      </t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-5380</v>
+        <v>-859</v>
       </c>
       <c r="G10" t="n">
-        <v>42349782</v>
+        <v>62397525</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,21 +729,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>支付林大為-沖9/30#110016            </t>
+          <t>自動扣繳109/11月中華電話費:Y281387-是方電訊 </t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1092</v>
+        <v>-2502</v>
       </c>
       <c r="G11" t="n">
-        <v>42348690</v>
+        <v>62395023</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,21 +770,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>支付黃隆玄-沖9/30#110016            </t>
+          <t>自動扣繳109/11月中華電話費:2217063      </t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-2212</v>
+        <v>-225</v>
       </c>
       <c r="G12" t="n">
-        <v>42346478</v>
+        <v>62394798</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>台中南屯                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:03-3603786   </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40316</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-237</v>
       </c>
       <c r="G13" t="n">
-        <v>42386794</v>
+        <v>62394561</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000014</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大社旗楠                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:3922141      </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42514</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-267</v>
       </c>
       <c r="G14" t="n">
-        <v>42429308</v>
+        <v>62394294</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000595</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>永康崑山科大                                  </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:0800268998   </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-454</v>
       </c>
       <c r="G15" t="n">
-        <v>42471308</v>
+        <v>62393840</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000455</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>台中南屯                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:0800023999   </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15229</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="G16" t="n">
-        <v>42486537</v>
+        <v>62393710</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000014</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>斗六民生                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月電話費0936997740      </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20343</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1836</v>
       </c>
       <c r="G17" t="n">
-        <v>42506880</v>
+        <v>62391874</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000131</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,38 +1011,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台中長春                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:03-3603000   </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>49919</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-2489</v>
       </c>
       <c r="G18" t="n">
-        <v>42556799</v>
+        <v>62389385</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000264</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>伸港水尾                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:0800626333   </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28564</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G19" t="n">
-        <v>42585363</v>
+        <v>62389285</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000474</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大甲中山	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>自動扣繳109/11月中華電話費:2252038      </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34816</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-428</v>
       </c>
       <c r="G20" t="n">
-        <v>42620179</v>
+        <v>62388857</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110203</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000865</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>支付10-1576黃隆玄費用申請              </t>
+          <t>自動扣繳109/11月中華電話費:03-3603023   </t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-3253</v>
+        <v>-1881</v>
       </c>
       <c r="G21" t="n">
-        <v>42616926</v>
+        <v>62386976</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>112028</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1180,21 +1180,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>支付10-1573陳沛淇費用申請              </t>
+          <t>匯台灣保全-沖10/31#110970           </t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-6176</v>
+        <v>-19970</v>
       </c>
       <c r="G22" t="n">
-        <v>42610750</v>
+        <v>62367006</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>110972</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1221,21 +1221,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>支付10-1570游宇宸費用申請              </t>
+          <t>匯環喬等沖10/31#111114+#111191等    </t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-2170</v>
+        <v>-255988</v>
       </c>
       <c r="G23" t="n">
-        <v>42608580</v>
+        <v>62111018</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>111425</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1247,7 +1247,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,38 +1257,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>馥德生有限公司                                 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>支付10-1583黃俊霖費用申請              </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-3065</v>
+        <v>-219970</v>
       </c>
       <c r="G24" t="n">
-        <v>42605515</v>
+        <v>61891048</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100420</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,38 +1298,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>乙香房實業股份有限公司                             </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>支付10-1582邱柏敏費用申請              </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-3764</v>
+        <v>-40554</v>
       </c>
       <c r="G25" t="n">
-        <v>42601751</v>
+        <v>61850494</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100781</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>一次性廠商(開發票)                              </t>
+          <t>十鴻企業有限公司                                </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1351,26 +1351,26 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9114</v>
+        <v>-79260</v>
       </c>
       <c r="G26" t="n">
-        <v>42592637</v>
+        <v>61771234</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110042</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>799999</t>
+          <t>100223</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,38 +1380,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>南僑油脂事業股份有限公司                            </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>360187</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-229570</v>
       </c>
       <c r="G27" t="n">
-        <v>42952824</v>
+        <v>61541664</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110205</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100285</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,38 +1421,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>品高企業股份有限公司                              </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>調整會科-正確：銀行存款，玉山乙存             </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-15000</v>
+        <v>-66614</v>
       </c>
       <c r="G28" t="n">
-        <v>42937824</v>
+        <v>61475050</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110205</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100245</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>堤諾林口店                                   </t>
+          <t>喬記實業有限公司                                </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29628</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-450819</v>
       </c>
       <c r="G29" t="n">
-        <v>42967452</v>
+        <v>61024231</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4000023</t>
+          <t>100165</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>士盟紙業有限公司                                </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>849568</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-20630</v>
       </c>
       <c r="G30" t="n">
-        <v>43817020</v>
+        <v>61003601</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>100175</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>竹北嘉興	                                   </t>
+          <t>嵐豐貿易有限公司                                </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73316</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-42285</v>
       </c>
       <c r="G31" t="n">
-        <v>43890336</v>
+        <v>60961316</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000938</t>
+          <t>100832</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>汐止工建	                                   </t>
+          <t>廖丁川                                     </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13449</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-43845</v>
       </c>
       <c r="G32" t="n">
-        <v>43903785</v>
+        <v>60917471</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000777</t>
+          <t>100793</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蘇澳中山                                    </t>
+          <t>愛味香食品股份有限公司                             </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3636</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-134606</v>
       </c>
       <c r="G33" t="n">
-        <v>43907421</v>
+        <v>60782865</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000406</t>
+          <t>100068</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大里大智	                                   </t>
+          <t>三紅企業股份有限公司                              </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28289</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-94050</v>
       </c>
       <c r="G34" t="n">
-        <v>43935710</v>
+        <v>60688815</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000943</t>
+          <t>100235</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>今口香調理食品股份有限公司                           </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14090</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-2228523</v>
       </c>
       <c r="G35" t="n">
-        <v>43949800</v>
+        <v>58460292</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>100267</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>大肚華山                                    </t>
+          <t>御軒食品有限公司                                </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>61505</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-686878</v>
       </c>
       <c r="G36" t="n">
-        <v>44011305</v>
+        <v>57773414</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000775</t>
+          <t>100232</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>台東中山                                    </t>
+          <t>憶霖企業股份有限公司                              </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>69344</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-284880</v>
       </c>
       <c r="G37" t="n">
-        <v>44080649</v>
+        <v>57488534</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000501</t>
+          <t>100320</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>神岡豐洲	                                   </t>
+          <t>承康研創股份有限公司                              </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21474</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-163440</v>
       </c>
       <c r="G38" t="n">
-        <v>44102123</v>
+        <v>57325094</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000922</t>
+          <t>100765</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>羅東羅商                                    </t>
+          <t>古德芙股份有限公司                               </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-17317</v>
       </c>
       <c r="G39" t="n">
-        <v>44117123</v>
+        <v>57307777</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110137</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000523</t>
+          <t>100786</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>龍井竹坑                                    </t>
+          <t>曲辰實業有限公司                                </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20154</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-167970</v>
       </c>
       <c r="G40" t="n">
-        <v>44137277</v>
+        <v>57139807</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000515</t>
+          <t>100780</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>梧棲中興	                                   </t>
+          <t>桂冠實業股份有公司                               </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>14217</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6330</v>
       </c>
       <c r="G41" t="n">
-        <v>44151494</v>
+        <v>57133477</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000898</t>
+          <t>100145</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>新營中正	                                   </t>
+          <t>艾瑞始達股份有限公司                              </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>11807</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-1138566</v>
       </c>
       <c r="G42" t="n">
-        <v>44163301</v>
+        <v>55994911</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000834</t>
+          <t>100422</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>三重集美                                    </t>
+          <t>華盛食品有限公司                                </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56137</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-123970</v>
       </c>
       <c r="G43" t="n">
-        <v>44219438</v>
+        <v>55870941</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000151</t>
+          <t>100110</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>麗嬰房                                     </t>
+          <t>東豐調理食品股份有限公司                            </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>8002</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-224670</v>
       </c>
       <c r="G44" t="n">
-        <v>44227440</v>
+        <v>55646271</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000773</t>
+          <t>100797</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>竹北六家嘉豐	                                 </t>
+          <t>歐得斯有限公司                                 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8611</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>-26267</v>
       </c>
       <c r="G45" t="n">
-        <v>44236051</v>
+        <v>55620004</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111579</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000927</t>
+          <t>100809</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>高雄富民                                    </t>
+          <t>可津食品有限公司                                </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23900</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-573970</v>
       </c>
       <c r="G46" t="n">
-        <v>44259951</v>
+        <v>55046034</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110193</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000879</t>
+          <t>100141</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201125</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,31 +2200,4992 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>可頌食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>支付10-1579胡毓樺費用申請              </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-450</v>
+        <v>-57628</v>
       </c>
       <c r="G47" t="n">
-        <v>44259501</v>
+        <v>54988406</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>110018</t>
+          <t>111790</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100140</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>模里西斯商台紐股份有限公司台灣分公司                      </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-551970</v>
+      </c>
+      <c r="G48" t="n">
+        <v>54436436</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>100371</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泉橋有限公司                                  </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-558492</v>
+      </c>
+      <c r="G49" t="n">
+        <v>53877944</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>100490</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>華福食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1110339</v>
+      </c>
+      <c r="G50" t="n">
+        <v>52767605</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>100132</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>開元食品工業(股)公司二洲美營業所                       </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-262370</v>
+      </c>
+      <c r="G51" t="n">
+        <v>52505235</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>100810</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永豐餘消費品實業股份有限公司                          </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-25118</v>
+      </c>
+      <c r="G52" t="n">
+        <v>52480117</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>100531</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>味全食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-874170</v>
+      </c>
+      <c r="G53" t="n">
+        <v>51605947</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>100200</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>皓廷食品科技有限公司                              </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-77970</v>
+      </c>
+      <c r="G54" t="n">
+        <v>51527977</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>100754</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>開元食品工業股份有限公司台北市內湖區營業所                   </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-670722</v>
+      </c>
+      <c r="G55" t="n">
+        <v>50857255</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>100443</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>源友企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-590366</v>
+      </c>
+      <c r="G56" t="n">
+        <v>50266889</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>100226</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>益彬實業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-257084</v>
+      </c>
+      <c r="G57" t="n">
+        <v>50009805</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>100794</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>真豪國際                                    </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-33990</v>
+      </c>
+      <c r="G58" t="n">
+        <v>49975815</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>100761</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>祥亮行銷事業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-902589</v>
+      </c>
+      <c r="G59" t="n">
+        <v>49073226</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>100351</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>風城製麵有限公司                                </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-10050</v>
+      </c>
+      <c r="G60" t="n">
+        <v>49063176</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>100823</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>飛力食品企業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-153624</v>
+      </c>
+      <c r="G61" t="n">
+        <v>48909552</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>100708</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>稻穗企業社                                   </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-63213</v>
+      </c>
+      <c r="G62" t="n">
+        <v>48846339</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>100033</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>魔術食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-2687036</v>
+      </c>
+      <c r="G63" t="n">
+        <v>46159303</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>100079</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>麥可利食品有限公司                               </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-307170</v>
+      </c>
+      <c r="G64" t="n">
+        <v>45852133</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>100075</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>統清股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-163650</v>
+      </c>
+      <c r="G65" t="n">
+        <v>45688483</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>100686</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>綠盟股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-271249</v>
+      </c>
+      <c r="G66" t="n">
+        <v>45417234</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>100387</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>羅德食品興業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-211170</v>
+      </c>
+      <c r="G67" t="n">
+        <v>45206064</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>100816</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>喜生食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-1289041</v>
+      </c>
+      <c r="G68" t="n">
+        <v>43917023</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>100341</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大新食品有限公司                                </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1447224</v>
+      </c>
+      <c r="G69" t="n">
+        <v>42469799</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>100040</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>群博國際有限公司                                </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-488070</v>
+      </c>
+      <c r="G70" t="n">
+        <v>41981729</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>100154</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金城餐具有限公司                                </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-8412</v>
+      </c>
+      <c r="G71" t="n">
+        <v>41973317</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富華股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-38526</v>
+      </c>
+      <c r="G72" t="n">
+        <v>41934791</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>100423</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>禾山國際有限公司                                </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-224420</v>
+      </c>
+      <c r="G73" t="n">
+        <v>41710371</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>100803</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>紅利食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-990595</v>
+      </c>
+      <c r="G74" t="n">
+        <v>40719776</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>100546</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金安信食品有限公司                               </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-301369</v>
+      </c>
+      <c r="G75" t="n">
+        <v>40418407</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>111579</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>100789</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>弘繽企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-145769</v>
+      </c>
+      <c r="G76" t="n">
+        <v>40272638</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>100099</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>強匠冷凍食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-217980</v>
+      </c>
+      <c r="G77" t="n">
+        <v>40054658</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>100685</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>美藍雷股份有限公司                               </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-400281</v>
+      </c>
+      <c r="G78" t="n">
+        <v>39654377</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>111790</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>100038</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>聯馥食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-5820</v>
+      </c>
+      <c r="G79" t="n">
+        <v>39648557</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>100748</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>良潔實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-7970</v>
+      </c>
+      <c r="G80" t="n">
+        <v>39640587</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>100403</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>豐盈股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-68610</v>
+      </c>
+      <c r="G81" t="n">
+        <v>39571977</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>100432</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>駿伸企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-26974</v>
+      </c>
+      <c r="G82" t="n">
+        <v>39545003</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>100261</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>世界大山有限公司(英屬維京群島商大山洋行有限公司台灣分公司)          </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-11562</v>
+      </c>
+      <c r="G83" t="n">
+        <v>39533441</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>台灣農畜產工業股份有限公司                           </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-598260</v>
+      </c>
+      <c r="G84" t="n">
+        <v>38935181</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>100365</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>山汰科技股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-631188</v>
+      </c>
+      <c r="G85" t="n">
+        <v>38303993</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>100517</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>立墩股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-641159</v>
+      </c>
+      <c r="G86" t="n">
+        <v>37662834</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>100385</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>龍達國際有限公司                                </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-741390</v>
+      </c>
+      <c r="G87" t="n">
+        <v>36921444</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>100386</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>佳津生技開發有限公司                              </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-28770</v>
+      </c>
+      <c r="G88" t="n">
+        <v>36892674</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>100271</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>元家企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-54808</v>
+      </c>
+      <c r="G89" t="n">
+        <v>36837866</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>100221</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>振聲農業科技股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-141177</v>
+      </c>
+      <c r="G90" t="n">
+        <v>36696689</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>100052</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>方霖實業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-279621</v>
+      </c>
+      <c r="G91" t="n">
+        <v>36417068</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>100438</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>加和紙業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-53478</v>
+      </c>
+      <c r="G92" t="n">
+        <v>36363590</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>100254</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>加峰塑膠工業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-230269</v>
+      </c>
+      <c r="G93" t="n">
+        <v>36133321</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>100698</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>壯佳果股份有限公司                               </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-84869</v>
+      </c>
+      <c r="G94" t="n">
+        <v>36048452</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>100057</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大吉興業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-13148</v>
+      </c>
+      <c r="G95" t="n">
+        <v>36035304</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>100035</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大翰翔企業股份有限公司                             </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-220796</v>
+      </c>
+      <c r="G96" t="n">
+        <v>35814508</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>100025</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>有勝企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-252497</v>
+      </c>
+      <c r="G97" t="n">
+        <v>35562011</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>100307</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南台彩藝印刷廠股份有限公司                           </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-34650</v>
+      </c>
+      <c r="G98" t="n">
+        <v>35527361</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>100764</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>東立易興業有限公司                               </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-251970</v>
+      </c>
+      <c r="G99" t="n">
+        <v>35275391</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>100516</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>欣伯國際股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-27969</v>
+      </c>
+      <c r="G100" t="n">
+        <v>35247422</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>100325</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>參方達興業有限公司                               </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-8070</v>
+      </c>
+      <c r="G101" t="n">
+        <v>35239352</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>100775</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>台灣卜蜂企業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-862965</v>
+      </c>
+      <c r="G102" t="n">
+        <v>34376387</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>宗霆股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-53270</v>
+      </c>
+      <c r="G103" t="n">
+        <v>34323117</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>100417</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富統食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-503970</v>
+      </c>
+      <c r="G104" t="n">
+        <v>33819147</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>100244</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>紅政企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1252753</v>
+      </c>
+      <c r="G105" t="n">
+        <v>32566394</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>100103</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>統奕包裝股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-159098</v>
+      </c>
+      <c r="G106" t="n">
+        <v>32407296</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>100374</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>將寶實業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-85965</v>
+      </c>
+      <c r="G107" t="n">
+        <v>32321331</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>100249</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>展昌行                                     </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-160771</v>
+      </c>
+      <c r="G108" t="n">
+        <v>32160560</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>100058</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰安食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-415066</v>
+      </c>
+      <c r="G109" t="n">
+        <v>31745494</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>100355</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海品水產有限公司(海林冷凍食品有限公司)                    </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-274370</v>
+      </c>
+      <c r="G110" t="n">
+        <v>31471124</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>100770</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>美福貿易股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-144402</v>
+      </c>
+      <c r="G111" t="n">
+        <v>31326722</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>100092</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海麟國際食品有限公司                              </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-143909</v>
+      </c>
+      <c r="G112" t="n">
+        <v>31182813</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>100760</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>碁富食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-686818</v>
+      </c>
+      <c r="G113" t="n">
+        <v>30495995</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>100280</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>誠毅紙器股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-67170</v>
+      </c>
+      <c r="G114" t="n">
+        <v>30428825</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>100294</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>運達實業社                                   </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-4664</v>
+      </c>
+      <c r="G115" t="n">
+        <v>30424161</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>100210</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鄉村食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-263810</v>
+      </c>
+      <c r="G116" t="n">
+        <v>30160351</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>100342</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>點鑫產業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3488865</v>
+      </c>
+      <c r="G117" t="n">
+        <v>26671486</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>100041</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鼎鴻塑膠工廠                                  </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-10890</v>
+      </c>
+      <c r="G118" t="n">
+        <v>26660596</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>111426</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>100023</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>佑鎬國際食品有限公司                              </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-81570</v>
+      </c>
+      <c r="G119" t="n">
+        <v>26579026</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>100305</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>康百國際食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-188970</v>
+      </c>
+      <c r="G120" t="n">
+        <v>26390056</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>100800</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>弘大昌貿易有限公司                               </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-2850</v>
+      </c>
+      <c r="G121" t="n">
+        <v>26387206</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>100812</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>爭鮮股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-131920</v>
+      </c>
+      <c r="G122" t="n">
+        <v>26255286</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>力遠貿易股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-62970</v>
+      </c>
+      <c r="G123" t="n">
+        <v>26192316</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>協憶有限公司                                  </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-256530</v>
+      </c>
+      <c r="G124" t="n">
+        <v>25935786</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>100529</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>紅榜股份有限公司                                </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-49470</v>
+      </c>
+      <c r="G125" t="n">
+        <v>25886316</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>100069</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>統一生機開發(股)公司                             </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-6900</v>
+      </c>
+      <c r="G126" t="n">
+        <v>25879416</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>100375</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>台灣可果美股份有限公司                             </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-114084</v>
+      </c>
+      <c r="G127" t="n">
+        <v>25765332</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>100510</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉楓食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-2301</v>
+      </c>
+      <c r="G128" t="n">
+        <v>25763031</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>100279</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>東穎食品實業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-98385</v>
+      </c>
+      <c r="G129" t="n">
+        <v>25664646</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>美味大師股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-108733</v>
+      </c>
+      <c r="G130" t="n">
+        <v>25555913</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>100545</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>尚品肉鬆實業有限公司                              </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-272825</v>
+      </c>
+      <c r="G131" t="n">
+        <v>25283088</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>100185</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>河洛企業股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-32424</v>
+      </c>
+      <c r="G132" t="n">
+        <v>25250664</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>100128</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>米可可有限公司                                 </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-144270</v>
+      </c>
+      <c r="G133" t="n">
+        <v>25106394</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>100783</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>美味王食品工業有限公司                             </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-63810</v>
+      </c>
+      <c r="G134" t="n">
+        <v>25042584</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>100082</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>美食家食材通路股份有限公司                           </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-4002</v>
+      </c>
+      <c r="G135" t="n">
+        <v>25038582</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>100488</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>聯合利華股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-17952</v>
+      </c>
+      <c r="G136" t="n">
+        <v>25020630</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>100391</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>聯華製粉食品股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-42049</v>
+      </c>
+      <c r="G137" t="n">
+        <v>24978581</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>100798</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>華冠乳品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-210018</v>
+      </c>
+      <c r="G138" t="n">
+        <v>24768563</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>111788</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>100107</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>豐原向陽                                    </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>13316</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>24781879</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1000256</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>北市文德                                    </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>12423</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>24794302</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1000355</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>彰化旭光	                                   </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>27322</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>24821624</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1000947</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中一食品股份有限公司                              </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>39009</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>24860633</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>5999894</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>悠遊卡股份有限公司                               </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>360</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>24860993</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>5999898</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>北市南海	                                   </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>33224</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>24894217</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1000850</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>內湖德安                                    </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>19768</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>24913985</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1000211</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>北市和平                                    </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>18883</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>24932868</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1000414</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>羅東中山                                    </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>11856</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>24944724</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1000387</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>新竹中山                                    </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>53826</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>24998550</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1000577</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平鎮廣德                                    </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>16199</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>25014749</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1000764</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>大雅學府                                    </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>13987</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>25028736</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1000056</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汐止復興                                    </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>13765</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>25042501</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1000285</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>楊梅青山                                    </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>23444</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>25065945</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>1000887</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>扶風堂                                     </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>6573</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>25072518</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>竹北三民	                                   </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>30172</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>25102690</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1000843</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>北市忠孝復興                                  </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>61630</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>25164320</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1000548</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>西螺光復                                    </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>30266</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>25194586</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1000282</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>基隆新豐	                                   </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>45151</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>25239737</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1000841</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>龜山警大	                                   </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>69405</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>25309142</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1000862</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>土城頂捷                                    </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>25329142</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>111953</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1000712</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>北市懷德                                    </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>24837</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>25353979</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>111885</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1000349</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>竹北嘉興	                                   </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>10871</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>25364850</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1000938</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>斗六慶生	                                   </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>6555</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25371405</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1000912</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>平鎮豐頂                                    </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>29157</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>25400562</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1000805</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>堤諾台南崇學                                  </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>41644</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>25442206</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>4000018</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>板橋北門                                    </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>38726</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>25480932</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1000144</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>板橋北門                                    </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>25530932</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1000144</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>台中精科	                                   </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>21518</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>25552450</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1000890</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20201125</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>新店耕莘                                    </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25582450</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>111984</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1000603</t>
         </is>
       </c>
     </row>
